--- a/data/dividends_info_20260224.xlsx
+++ b/data/dividends_info_20260224.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>54.59999847412109</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="I2" t="n">
-        <v>1.282051317880129</v>
+        <v>1.291512896949333</v>
       </c>
       <c r="J2" t="n">
         <v>356</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>87.48000335693359</v>
+        <v>87</v>
       </c>
       <c r="I3" t="n">
-        <v>1.188843118531466</v>
+        <v>1.195402298850575</v>
       </c>
       <c r="J3" t="n">
         <v>83</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>54.59999847412109</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="I4" t="n">
-        <v>4.029304141908979</v>
+        <v>4.059040533269333</v>
       </c>
       <c r="J4" t="n">
         <v>83</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>19.75</v>
+        <v>19.71500015258789</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.007101160972097</v>
       </c>
       <c r="J5" t="n">
         <v>83</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.86299991607666</v>
+        <v>5.761000156402588</v>
       </c>
       <c r="I6" t="n">
-        <v>3.240661823634174</v>
+        <v>3.298038445439724</v>
       </c>
       <c r="J6" t="n">
         <v>83</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>58.06000137329102</v>
+        <v>57.61999893188477</v>
       </c>
       <c r="I7" t="n">
-        <v>2.411298599527821</v>
+        <v>2.429711950628468</v>
       </c>
       <c r="J7" t="n">
         <v>83</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>22.60000038146973</v>
+        <v>22.92000007629395</v>
       </c>
       <c r="I8" t="n">
-        <v>2.654867211825156</v>
+        <v>2.617801038406529</v>
       </c>
       <c r="J8" t="n">
         <v>83</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9.060000419616699</v>
+        <v>9.010000228881836</v>
       </c>
       <c r="I9" t="n">
-        <v>5.634657575673685</v>
+        <v>5.665926604125673</v>
       </c>
       <c r="J9" t="n">
         <v>69</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.255000114440918</v>
+        <v>2.240000009536743</v>
       </c>
       <c r="I11" t="n">
-        <v>2.882483224002649</v>
+        <v>2.901785701931435</v>
       </c>
       <c r="J11" t="n">
         <v>62</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6.820000171661377</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="I12" t="n">
-        <v>7.331378114587323</v>
+        <v>7.299270174614986</v>
       </c>
       <c r="J12" t="n">
         <v>55</v>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>12.65499973297119</v>
       </c>
       <c r="I13" t="n">
-        <v>4.153846153846154</v>
+        <v>4.267088197505767</v>
       </c>
       <c r="J13" t="n">
         <v>55</v>
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>303.8999938964844</v>
+        <v>316.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.189536055479934</v>
+        <v>1.14218009478673</v>
       </c>
       <c r="J14" t="n">
         <v>55</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>19.125</v>
+        <v>18.79000091552734</v>
       </c>
       <c r="I16" t="n">
-        <v>3.294117647058824</v>
+        <v>3.352847095815689</v>
       </c>
       <c r="J16" t="n">
         <v>55</v>
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>28.5049991607666</v>
+        <v>28.80500030517578</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3157340910357689</v>
+        <v>0.3124457526349288</v>
       </c>
       <c r="J17" t="n">
         <v>27</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>54.59999847412109</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="I18" t="n">
-        <v>1.190476223745834</v>
+        <v>1.199261975738666</v>
       </c>
       <c r="J18" t="n">
         <v>-1</v>
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.679999947547913</v>
+        <v>1.615000009536743</v>
       </c>
       <c r="I19" t="n">
-        <v>3.571428682933862</v>
+        <v>3.715170256699304</v>
       </c>
       <c r="J19" t="n">
         <v>-15</v>
@@ -1374,10 +1374,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.1809999942779541</v>
+        <v>0.1829999983310699</v>
       </c>
       <c r="I20" t="n">
-        <v>33.14917231868003</v>
+        <v>32.78688554491267</v>
       </c>
       <c r="J20" t="n">
         <v>-22</v>
@@ -1799,7 +1799,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>Predict S.p.A.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Predict S.p.A.</t>
+          <t>Pozzi Milano S.p.A.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1850,7 +1850,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1867,7 +1867,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Longino &amp; Cardenal S.p.A.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1884,7 +1884,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Longino &amp; Cardenal S.p.A.</t>
+          <t>Intesa Sanpaolo S.p.A.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1894,14 +1894,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>IGD SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>HELYX INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
+          <t>PROMOTICA S.p.A.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1969,7 +1969,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Energy Time S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1986,7 +1986,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dedem S.p.A.</t>
+          <t>Energy Time S.p.A.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1996,14 +1996,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>Dedem S.p.A.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2013,14 +2013,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bellini Nautica S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PROMOTICA S.p.A.</t>
+          <t>Bellini Nautica S.p.A.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2071,7 +2071,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2081,14 +2081,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2105,7 +2105,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2115,14 +2115,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Renovalo S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2132,14 +2132,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2149,14 +2149,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Reti S.p.A.</t>
+          <t>Renovalo S.p.A.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2309,7 +2309,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2336,14 +2336,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2360,7 +2360,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2370,14 +2370,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2394,7 +2394,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2462,7 +2462,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2472,14 +2472,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2489,14 +2489,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2523,14 +2523,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2615,7 +2615,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2649,7 +2649,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2659,14 +2659,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2683,7 +2683,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2700,7 +2700,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2710,14 +2710,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2727,14 +2727,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2744,14 +2744,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2768,7 +2768,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2778,14 +2778,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2802,7 +2802,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BANCA SISTEMA S.p.A.</t>
+          <t>BEEWIZE</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2819,7 +2819,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BEEWIZE</t>
+          <t>BANCA SISTEMA S.p.A.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Toscana Aeroporti S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2938,7 +2938,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2955,7 +2955,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>Banca Popolare di Sondrio S.p.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2972,7 +2972,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2989,7 +2989,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>Toscana Aeroporti S.p.A.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3023,7 +3023,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3057,7 +3057,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3074,7 +3074,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3091,7 +3091,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3101,14 +3101,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3125,7 +3125,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3135,14 +3135,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3152,14 +3152,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3186,14 +3186,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3210,7 +3210,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3220,14 +3220,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3261,7 +3261,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3278,7 +3278,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3288,14 +3288,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3312,7 +3312,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3346,7 +3346,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3363,7 +3363,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3373,14 +3373,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3431,7 +3431,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3441,14 +3441,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3465,7 +3465,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3482,7 +3482,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3499,7 +3499,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3509,14 +3509,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3526,14 +3526,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3550,7 +3550,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3560,14 +3560,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3577,14 +3577,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3601,7 +3601,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3611,14 +3611,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3635,7 +3635,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3652,7 +3652,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3662,14 +3662,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3679,14 +3679,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3696,14 +3696,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3720,7 +3720,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3737,7 +3737,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3754,7 +3754,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3764,14 +3764,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3781,14 +3781,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3798,14 +3798,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3815,14 +3815,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3839,7 +3839,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3856,7 +3856,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3866,14 +3866,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3890,7 +3890,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3900,14 +3900,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3917,14 +3917,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3934,14 +3934,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3958,7 +3958,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3975,7 +3975,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>Neodecortech S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3992,7 +3992,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4002,14 +4002,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4019,14 +4019,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4043,7 +4043,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4053,14 +4053,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4070,14 +4070,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Neodecortech S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4087,14 +4087,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4104,14 +4104,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4128,7 +4128,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4138,14 +4138,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4179,7 +4179,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4189,14 +4189,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4240,14 +4240,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4257,14 +4257,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4281,7 +4281,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4298,7 +4298,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4315,7 +4315,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4332,7 +4332,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4349,7 +4349,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4366,7 +4366,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4376,14 +4376,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4393,14 +4393,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Comer Industries S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4417,7 +4417,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
+          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4434,7 +4434,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>NEWPRINCES</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4451,7 +4451,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4485,7 +4485,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>EUROTECH S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4502,7 +4502,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Pharmanutra S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4519,7 +4519,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Pharmanutra S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4536,7 +4536,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4553,7 +4553,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
+          <t>I.M.D. International Medical Devices S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A2A S.p.A.</t>
+          <t>FAE Technology Società Benefit S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4597,14 +4597,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>I.M.D. International Medical Devices S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4621,7 +4621,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4631,14 +4631,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>A2A S.p.A.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4648,14 +4648,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4665,14 +4665,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Technoprobe S.p.A.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4689,7 +4689,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4699,14 +4699,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4716,14 +4716,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BREMBO N.V.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4740,7 +4740,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4757,7 +4757,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RISANAMENTO S.p.A.</t>
+          <t>Technoprobe S.p.A.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4774,7 +4774,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>RISANAMENTO S.p.A.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4791,7 +4791,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4801,14 +4801,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RECORDATI S.p.A.</t>
+          <t>FNM S.p.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4825,7 +4825,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4842,7 +4842,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>AEDES S.p.A.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4852,14 +4852,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
+          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4876,7 +4876,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
+          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4893,7 +4893,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>RECORDATI S.p.A.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4903,14 +4903,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>DATALOGIC S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4927,7 +4927,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>AEDES S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4937,14 +4937,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>FRENDY ENERGY S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4954,14 +4954,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>FNM S.p.A.</t>
+          <t>Ecomembrane S.p.A.</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4978,7 +4978,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>FRENDY ENERGY S.p.A.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4988,14 +4988,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Ecomembrane S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5012,7 +5012,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>DATALOGIC S.p.A.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5063,7 +5063,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5073,14 +5073,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>DiaSorin S.p.A</t>
+          <t>Gambero Rosso S.p.A.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5097,7 +5097,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>DHH S.p.A.</t>
+          <t>DiaSorin S.p.A</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5114,7 +5114,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Telesia S.p.A.</t>
+          <t>DHH S.p.A.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5165,7 +5165,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>gAIn360 S.p.A.</t>
+          <t>Telesia S.p.A.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5182,7 +5182,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Gambero Rosso S.p.A.</t>
+          <t>NEXT RE SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5199,7 +5199,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>NEXT RE SIIQ S.p.A.</t>
+          <t>INTERPUMP GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5216,7 +5216,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
+          <t>gAIn360 S.p.A.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5233,7 +5233,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>OMER S.p.A.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5243,14 +5243,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>Banca Profilo S.p.A.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5267,7 +5267,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Antares Vision S.p.A.</t>
+          <t>Predict S.p.A.</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5284,7 +5284,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Banca Profilo S.p.A.</t>
+          <t>Antares Vision S.p.A.</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5301,7 +5301,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>CLASS EDITORI S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5311,14 +5311,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ENAV S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5335,7 +5335,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>EXPERT.AI S.p.A.</t>
+          <t>RAI WAY S.p.A.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5352,7 +5352,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>OMER S.p.A.</t>
+          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5369,7 +5369,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Predict S.p.A.</t>
+          <t>SECO S.p.A.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5386,7 +5386,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>RAI WAY S.p.A.</t>
+          <t>Ubaldi Costruzioni S.p.A.</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5403,7 +5403,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
+          <t>ZEST S.p.A.</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5420,7 +5420,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SECO S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5430,14 +5430,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>CLASS EDITORI S.p.A.</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5447,14 +5447,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ZEST S.p.A.</t>
+          <t>POWERSOFT S.p.A.</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5488,7 +5488,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>IREN S.p.A.</t>
+          <t>IMMSI S.p.A.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5505,7 +5505,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Ubaldi Costruzioni S.p.A.</t>
+          <t>HELYX INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5522,7 +5522,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>IMMSI S.p.A.</t>
+          <t>Friends S.p.A.</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5539,7 +5539,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
+          <t>FOPE S.p.A.</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5556,7 +5556,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Friends S.p.A.</t>
+          <t>F.I.L.A. S.p.A.</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5573,7 +5573,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>POWERSOFT S.p.A.</t>
+          <t>EuroGroup Laminations S.p.A.</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>F.I.L.A. S.p.A.</t>
+          <t>IREN S.p.A.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5607,7 +5607,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>EuroGroup Laminations S.p.A.</t>
+          <t>EXPERT.AI S.p.A.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5624,7 +5624,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>FOPE S.p.A.</t>
+          <t>ENAV S.p.A.</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5641,7 +5641,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Growens S.p.A.</t>
+          <t>Cloudia Research S.p.A.</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5658,7 +5658,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SABAF S.p.A.</t>
+          <t>Braga Moro Sistemi di Energia S.p.A.</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5675,7 +5675,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SIAV S.p.A.</t>
+          <t>Porto Aviation Group S.p.A.</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5692,7 +5692,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CAIRO COMMUNICATION S.p.A.</t>
+          <t>Matica Fintec S.p.A.</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5709,7 +5709,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Cloudia Research S.p.A.</t>
+          <t>Growens S.p.A.</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5726,7 +5726,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>DOTSTAY S.p.A.</t>
+          <t>Franchi Umberto Marmi S.p.A.</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5743,7 +5743,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Egomnia S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5753,14 +5753,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Egomnia S.p.A.</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5770,14 +5770,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Franchi Umberto Marmi S.p.A.</t>
+          <t>DOTSTAY S.p.A.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5794,7 +5794,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Softlab S.p.A.</t>
+          <t>Allcore S.p.A.</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5811,7 +5811,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Matica Fintec S.p.A.</t>
+          <t>RCS MediaGroup S.p.A.</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5828,7 +5828,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>RCS MediaGroup S.p.A.</t>
+          <t>CAIRO COMMUNICATION S.p.A.</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5862,7 +5862,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Allcore S.p.A.</t>
+          <t>SABAF S.p.A.</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -5879,7 +5879,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Braga Moro Sistemi di Energia S.p.A.</t>
+          <t>SIAV S.p.A.</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5896,7 +5896,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Porto Aviation Group S.p.A.</t>
+          <t>Softlab S.p.A.</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5913,7 +5913,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>BRIOSCHI SVILUPPO IMMOBILIARE S.p.A</t>
+          <t>DANIELI &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5923,14 +5923,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>BolognaFiere S.p.A.</t>
+          <t>ATON Green Storage S.p.A.</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -5947,7 +5947,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CREACTIVES GROUP S.p.A.</t>
+          <t>BRIOSCHI SVILUPPO IMMOBILIARE S.p.A</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5957,14 +5957,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Confinvest F.L. S.p.A.</t>
+          <t>BolognaFiere S.p.A.</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5981,7 +5981,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>DANIELI &amp; C. S.p.A.</t>
+          <t>Racing Force S.p.A.</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5991,14 +5991,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ELSA Solutions S.p.A.</t>
+          <t>Somec S.p.A.</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6015,7 +6015,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ELICA S.p.A.</t>
+          <t>The Italian Sea Group S.p.A.</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6032,7 +6032,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ATON Green Storage S.p.A.</t>
+          <t>The Italian Sea Group S.p.A.</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6042,14 +6042,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ESI S.p.A.</t>
+          <t>eVISO S.p.A.</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6059,14 +6059,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>PLC S.p.A.</t>
+          <t>Confinvest F.L. S.p.A.</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6083,7 +6083,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>G.M. Leather S.p.A.</t>
+          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>The Italian Sea Group S.p.A.</t>
+          <t>PLC S.p.A.</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6117,7 +6117,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>The Italian Sea Group S.p.A.</t>
+          <t>PININFARINA S.p.A.</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6127,14 +6127,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
+          <t>Longino &amp; Cardenal S.p.A.</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6151,7 +6151,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>eVISO S.p.A.</t>
+          <t>HERA S.p.A.</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6161,14 +6161,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>rino petino S.p.A.</t>
+          <t>G.M. Leather S.p.A.</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6202,7 +6202,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Somec S.p.A.</t>
+          <t>ESI S.p.A.</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6219,7 +6219,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Racing Force S.p.A.</t>
+          <t>ELSA Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6236,7 +6236,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>PININFARINA S.p.A.</t>
+          <t>ELICA S.p.A.</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6253,7 +6253,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Longino &amp; Cardenal S.p.A.</t>
+          <t>rino petino S.p.A.</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6270,7 +6270,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>HERA S.p.A.</t>
+          <t>CREACTIVES GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6280,14 +6280,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Edil San Felice S.p.A. Società Benefit</t>
+          <t>SOL S.p.A.</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6304,7 +6304,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Finanza.tech S.p.A. Società Benefit</t>
+          <t>TREVI - Finanziaria Industriale S.p.A.</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6321,7 +6321,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ENA S.p.A.</t>
+          <t>TERNA S.p.A.</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6338,7 +6338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Giglio.com S.p.A.</t>
+          <t>TERNA S.p.A.</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6348,14 +6348,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Grifal S.p.A.</t>
+          <t>ISCC FINTECH S.p.A.</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6372,7 +6372,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Directa SIM S.P.A.</t>
+          <t>Industrie Chimiche Forestali S.p.A.</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6389,7 +6389,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Alfonsino S.p.A.</t>
+          <t>Grifal S.p.A.</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6406,7 +6406,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Directa SIM S.P.A.</t>
+          <t>Giglio.com S.p.A.</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6416,14 +6416,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Edil San Felice S.p.A. Società Benefit</t>
+          <t>GVS S.p.A.</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6433,14 +6433,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>GVS S.p.A.</t>
+          <t>Finanza.tech S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6457,7 +6457,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>RES S.p.A.</t>
+          <t>Edil San Felice S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6474,7 +6474,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Racing Force S.p.A.</t>
+          <t>Edil San Felice S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6491,7 +6491,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>Directa SIM S.P.A.</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -6508,7 +6508,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SOL S.p.A.</t>
+          <t>Directa SIM S.P.A.</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -6525,7 +6525,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>TERNA S.p.A.</t>
+          <t>Cogefeed S.p.A.</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -6542,7 +6542,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>TERNA S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -6559,7 +6559,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>TREVI - Finanziaria Industriale S.p.A.</t>
+          <t>Alfonsino S.p.A.</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -6576,7 +6576,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Unipol S.p.A.</t>
+          <t>Intred S.p.A.</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -6593,7 +6593,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Intred S.p.A.</t>
+          <t>KME Group S.p.A.</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -6610,7 +6610,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>KME Group S.p.A.</t>
+          <t>Lindbergh S.p.A.</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -6627,7 +6627,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Industrie Chimiche Forestali S.p.A.</t>
+          <t>Maps S.p.A.</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -6644,7 +6644,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ISCC FINTECH S.p.A.</t>
+          <t>Next Geosolutions Europe S.p.A.</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -6661,7 +6661,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Lindbergh S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -6671,14 +6671,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Maps S.p.A.</t>
+          <t>Pirelli &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -6695,7 +6695,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Next Geosolutions Europe S.p.A.</t>
+          <t>RES S.p.A.</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -6712,7 +6712,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>Racing Force S.p.A.</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -6722,14 +6722,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Pirelli &amp; C. S.p.A.</t>
+          <t>Rocket Sharing Company S.p.A.</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -6746,7 +6746,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Rocket Sharing Company S.p.A.</t>
+          <t>Unipol S.p.A.</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -6763,7 +6763,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Cogefeed S.p.A.</t>
+          <t>ENA S.p.A.</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -6806,559 +6806,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Alfonsino S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CEMBRE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cogefeed S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Directa SIM S.P.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Directa SIM S.P.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ENA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Edil San Felice S.p.A. Società Benefit</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Edil San Felice S.p.A. Società Benefit</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Finanza.tech S.p.A. Società Benefit</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GVS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Giglio.com S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Grifal S.p.A.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ISCC FINTECH S.p.A.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Industrie Chimiche Forestali S.p.A.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Intred S.p.A.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>KME Group S.p.A.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Lindbergh S.p.A.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Maps S.p.A.</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Next Geosolutions Europe S.p.A.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>OSAI Automation System S.p.A.</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Annual General Meeting</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Pirelli &amp; C. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>RES S.p.A.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Racing Force S.p.A.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Rocket Sharing Company S.p.A.</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SOL S.p.A.</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>TERNA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TERNA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>TREVI - Finanziaria Industriale S.p.A.</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Tecno S.p.A. Società Benefit</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Unipol S.p.A.</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2026-03-26</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>doValue S.p.A.</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>